--- a/REGULAR/OJT/NEW DONE/BORJA, EDWIN.xlsx
+++ b/REGULAR/OJT/NEW DONE/BORJA, EDWIN.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB54967-EF15-42BE-975E-ED4D9C2F4AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="155">
   <si>
     <t>PERIOD</t>
   </si>
@@ -490,19 +488,31 @@
   </si>
   <si>
     <t xml:space="preserve"> DOMESTIC 8/12</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/5,6,7/2022</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +900,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,9 +939,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,7 +967,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -974,7 +984,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -989,7 +999,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1031,7 +1041,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1091,7 +1101,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1104,7 +1114,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1119,7 +1129,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1137,7 +1147,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1154,7 +1164,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1173,7 +1183,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1190,7 +1200,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1206,7 +1216,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1223,7 +1233,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1242,7 +1252,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1259,7 +1269,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1275,7 +1285,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1332,7 +1342,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1377,7 +1387,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1430,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1494,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1554,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1620,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1683,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1781,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1840,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1905,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1948,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2023,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2209,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2275,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2333,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2399,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2455,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2530,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2573,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2639,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2695,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2793,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2856,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2905,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2912,25 +2922,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K301" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2942,13 +2952,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2957,14 +2967,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3261,14 +3271,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3278,7 +3288,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3286,19 +3296,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K301"/>
+  <dimension ref="A2:K309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A284" activePane="bottomLeft"/>
+      <pane ySplit="1884" topLeftCell="A283" activePane="bottomLeft"/>
       <selection activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
+      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -3313,64 +3323,64 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3378,7 +3388,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3391,24 +3401,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3443,7 +3453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3451,8 +3461,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.08199999999999</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>168.58199999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3461,13 +3471,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>209.917</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>214.417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3489,7 +3499,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>37653</v>
       </c>
@@ -3509,7 +3519,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>37681</v>
@@ -3530,7 +3540,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A20" si="0">EDATE(A12,1)</f>
         <v>37712</v>
@@ -3551,7 +3561,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -3572,7 +3582,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3593,7 +3603,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f>EDATE(A15,1)</f>
         <v>37803</v>
@@ -3614,7 +3624,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3635,7 +3645,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3656,7 +3666,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>37895</v>
@@ -3677,7 +3687,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>37926</v>
@@ -3698,7 +3708,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f>EDATE(A20,1)</f>
         <v>37956</v>
@@ -3719,7 +3729,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>44</v>
       </c>
@@ -3737,7 +3747,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -3757,7 +3767,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -3782,7 +3792,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A34" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -3803,7 +3813,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -3824,7 +3834,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -3845,7 +3855,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -3870,7 +3880,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -3894,7 +3904,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A28,1)</f>
         <v>38169</v>
@@ -3915,7 +3925,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -3936,7 +3946,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -3957,7 +3967,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -3978,7 +3988,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -4005,7 +4015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>48</v>
@@ -4027,7 +4037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>38322</v>
@@ -4048,7 +4058,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>51</v>
       </c>
@@ -4066,7 +4076,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4086,7 +4096,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4107,7 +4117,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A49" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4128,7 +4138,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4149,7 +4159,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -4170,7 +4180,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4191,7 +4201,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4212,7 +4222,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4237,7 +4247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>38596</v>
@@ -4262,7 +4272,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -4283,7 +4293,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4304,7 +4314,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -4325,7 +4335,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>54</v>
       </c>
@@ -4343,7 +4353,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>38718</v>
       </c>
@@ -4363,7 +4373,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38749</v>
@@ -4384,7 +4394,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A62" si="3">EDATE(A52,1)</f>
         <v>38777</v>
@@ -4405,7 +4415,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>38808</v>
@@ -4426,7 +4436,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4447,7 +4457,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4468,7 +4478,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4489,7 +4499,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4510,7 +4520,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38961</v>
@@ -4531,7 +4541,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38991</v>
@@ -4552,7 +4562,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -4573,7 +4583,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>39052</v>
@@ -4598,7 +4608,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>55</v>
       </c>
@@ -4616,7 +4626,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>39083</v>
       </c>
@@ -4640,7 +4650,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f>EDATE(A64,1)</f>
         <v>39114</v>
@@ -4665,7 +4675,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" ref="A66:A75" si="4">EDATE(A65,1)</f>
         <v>39142</v>
@@ -4686,7 +4696,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>39173</v>
@@ -4707,7 +4717,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>39203</v>
@@ -4728,7 +4738,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -4753,7 +4763,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -4778,7 +4788,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -4803,7 +4813,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>39326</v>
@@ -4824,7 +4834,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -4851,7 +4861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="4"/>
         <v>39387</v>
@@ -4872,7 +4882,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -4897,7 +4907,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>63</v>
       </c>
@@ -4915,7 +4925,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>39448</v>
       </c>
@@ -4935,7 +4945,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>39479</v>
@@ -4962,7 +4972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A90" si="5">EDATE(A78,1)</f>
         <v>39508</v>
@@ -4983,7 +4993,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5004,7 +5014,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5029,7 +5039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>68</v>
@@ -5051,7 +5061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39600</v>
@@ -5076,7 +5086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5094,7 +5104,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>39630</v>
@@ -5115,7 +5125,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5136,7 +5146,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5161,7 +5171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -5179,7 +5189,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>39722</v>
@@ -5200,7 +5210,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5227,7 +5237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>62</v>
@@ -5247,7 +5257,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>39783</v>
@@ -5268,7 +5278,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>74</v>
       </c>
@@ -5286,7 +5296,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>39814</v>
       </c>
@@ -5306,7 +5316,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A94,1)</f>
         <v>39845</v>
@@ -5333,7 +5343,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" ref="A96:A105" si="6">EDATE(A95,1)</f>
         <v>39873</v>
@@ -5360,7 +5370,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5385,7 +5395,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5406,7 +5416,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -5433,7 +5443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -5454,7 +5464,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -5475,7 +5485,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -5496,7 +5506,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -5517,7 +5527,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -5542,7 +5552,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -5567,7 +5577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>82</v>
       </c>
@@ -5585,7 +5595,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>40179</v>
       </c>
@@ -5605,7 +5615,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f>EDATE(A107,1)</f>
         <v>40210</v>
@@ -5626,7 +5636,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" ref="A109:A121" si="7">EDATE(A108,1)</f>
         <v>40238</v>
@@ -5653,7 +5663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -5674,7 +5684,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="7"/>
         <v>40299</v>
@@ -5701,7 +5711,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>62</v>
@@ -5721,7 +5731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>40330</v>
@@ -5742,7 +5752,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="7"/>
         <v>40360</v>
@@ -5769,7 +5779,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>46</v>
@@ -5791,7 +5801,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>45</v>
@@ -5813,7 +5823,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>40391</v>
@@ -5834,7 +5844,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="7"/>
         <v>40422</v>
@@ -5861,7 +5871,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -5888,7 +5898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -5913,7 +5923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>40513</v>
@@ -5934,7 +5944,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>88</v>
       </c>
@@ -5952,7 +5962,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>40544</v>
       </c>
@@ -5972,7 +5982,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A123,1)</f>
         <v>40575</v>
@@ -5999,7 +6009,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>70</v>
@@ -6021,7 +6031,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>70</v>
@@ -6043,7 +6053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A124,1)</f>
         <v>40603</v>
@@ -6070,7 +6080,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" ref="A128:A137" si="8">EDATE(A127,1)</f>
         <v>40634</v>
@@ -6091,7 +6101,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -6112,7 +6122,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6137,7 +6147,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6162,7 +6172,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6183,7 +6193,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6204,7 +6214,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -6231,7 +6241,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>62</v>
@@ -6251,7 +6261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>40848</v>
@@ -6272,7 +6282,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="8"/>
         <v>40878</v>
@@ -6293,7 +6303,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="48" t="s">
         <v>96</v>
       </c>
@@ -6311,7 +6321,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>40909</v>
       </c>
@@ -6331,7 +6341,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f>EDATE(A139,1)</f>
         <v>40940</v>
@@ -6352,7 +6362,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" ref="A141:A149" si="9">EDATE(A140,1)</f>
         <v>40969</v>
@@ -6373,7 +6383,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="9"/>
         <v>41000</v>
@@ -6394,7 +6404,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="9"/>
         <v>41030</v>
@@ -6415,7 +6425,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="9"/>
         <v>41061</v>
@@ -6436,7 +6446,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -6457,7 +6467,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>41122</v>
@@ -6478,7 +6488,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -6499,7 +6509,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>41183</v>
@@ -6520,7 +6530,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>41214</v>
@@ -6541,7 +6551,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A149,1)</f>
         <v>41244</v>
@@ -6566,7 +6576,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="48" t="s">
         <v>97</v>
       </c>
@@ -6584,7 +6594,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>41275</v>
       </c>
@@ -6610,7 +6620,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A152,1)</f>
         <v>41306</v>
@@ -6637,7 +6647,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" ref="A154:A166" si="10">EDATE(A153,1)</f>
         <v>41334</v>
@@ -6658,7 +6668,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -6685,7 +6695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="10"/>
         <v>41395</v>
@@ -6712,7 +6722,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -6739,7 +6749,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -6759,7 +6769,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>41456</v>
@@ -6780,7 +6790,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -6801,7 +6811,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -6828,7 +6838,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>46</v>
@@ -6850,7 +6860,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f>EDATE(A161,1)</f>
         <v>41548</v>
@@ -6875,7 +6885,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>45</v>
@@ -6895,7 +6905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>41579</v>
@@ -6916,7 +6926,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -6937,7 +6947,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="53" t="s">
         <v>101</v>
       </c>
@@ -6955,7 +6965,7 @@
       <c r="J167" s="12"/>
       <c r="K167" s="15"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>41640</v>
       </c>
@@ -6979,7 +6989,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f>EDATE(A168,1)</f>
         <v>41671</v>
@@ -7004,7 +7014,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>70</v>
@@ -7026,7 +7036,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>41699</v>
@@ -7053,7 +7063,7 @@
         <v>46447</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" ref="A172:A179" si="11">EDATE(A171,1)</f>
         <v>41730</v>
@@ -7080,7 +7090,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="11"/>
         <v>41760</v>
@@ -7101,7 +7111,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -7122,7 +7132,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f t="shared" si="11"/>
         <v>41821</v>
@@ -7143,7 +7153,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -7164,7 +7174,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -7185,7 +7195,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -7206,7 +7216,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>41944</v>
@@ -7233,7 +7243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>76</v>
@@ -7252,7 +7262,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>41974</v>
@@ -7277,7 +7287,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="48" t="s">
         <v>108</v>
       </c>
@@ -7295,7 +7305,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>42005</v>
       </c>
@@ -7321,7 +7331,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f>EDATE(A183,1)</f>
         <v>42036</v>
@@ -7348,7 +7358,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" ref="A185:A194" si="12">EDATE(A184,1)</f>
         <v>42064</v>
@@ -7369,7 +7379,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="12"/>
         <v>42095</v>
@@ -7390,7 +7400,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -7415,7 +7425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -7436,7 +7446,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -7463,7 +7473,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -7484,7 +7494,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -7505,7 +7515,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -7532,7 +7542,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>42309</v>
@@ -7553,7 +7563,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="12"/>
         <v>42339</v>
@@ -7574,7 +7584,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="48" t="s">
         <v>113</v>
       </c>
@@ -7592,7 +7602,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>42370</v>
       </c>
@@ -7612,7 +7622,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A196,1)</f>
         <v>42401</v>
@@ -7633,7 +7643,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" ref="A198:A203" si="13">EDATE(A197,1)</f>
         <v>42430</v>
@@ -7654,7 +7664,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -7675,7 +7685,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -7696,7 +7706,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -7717,7 +7727,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -7742,7 +7752,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -7767,7 +7777,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>46</v>
@@ -7787,7 +7797,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>42614</v>
@@ -7808,7 +7818,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>42644</v>
@@ -7829,7 +7839,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A208" si="14">EDATE(A206,1)</f>
         <v>42675</v>
@@ -7856,7 +7866,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="14"/>
         <v>42705</v>
@@ -7881,7 +7891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="48" t="s">
         <v>116</v>
       </c>
@@ -7899,7 +7909,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>42736</v>
       </c>
@@ -7919,7 +7929,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A210,1)</f>
         <v>42767</v>
@@ -7946,7 +7956,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" ref="A212:A220" si="15">EDATE(A211,1)</f>
         <v>42795</v>
@@ -7967,7 +7977,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="15"/>
         <v>42826</v>
@@ -7988,7 +7998,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="15"/>
         <v>42856</v>
@@ -8009,7 +8019,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="15"/>
         <v>42887</v>
@@ -8030,7 +8040,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" si="15"/>
         <v>42917</v>
@@ -8057,7 +8067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>70</v>
@@ -8079,7 +8089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A216,1)</f>
         <v>42948</v>
@@ -8100,7 +8110,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="15"/>
         <v>42979</v>
@@ -8121,7 +8131,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="15"/>
         <v>43009</v>
@@ -8142,7 +8152,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f>EDATE(A220,1)</f>
         <v>43040</v>
@@ -8169,7 +8179,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>64</v>
@@ -8188,7 +8198,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>62</v>
@@ -8205,7 +8215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A221,1)</f>
         <v>43070</v>
@@ -8226,7 +8236,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="48" t="s">
         <v>122</v>
       </c>
@@ -8244,7 +8254,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>43101</v>
       </c>
@@ -8270,7 +8280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A226,1)</f>
         <v>43132</v>
@@ -8291,7 +8301,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" ref="A228:A238" si="16">EDATE(A227,1)</f>
         <v>43160</v>
@@ -8318,7 +8328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f t="shared" si="16"/>
         <v>43191</v>
@@ -8345,7 +8355,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="16"/>
         <v>43221</v>
@@ -8366,7 +8376,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="16"/>
         <v>43252</v>
@@ -8391,7 +8401,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>46</v>
@@ -8411,7 +8421,7 @@
         <v>45809</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>43282</v>
@@ -8438,7 +8448,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" si="16"/>
         <v>43313</v>
@@ -8459,7 +8469,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="16"/>
         <v>43344</v>
@@ -8480,7 +8490,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="16"/>
         <v>43374</v>
@@ -8501,7 +8511,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="16"/>
         <v>43405</v>
@@ -8522,7 +8532,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="16"/>
         <v>43435</v>
@@ -8549,7 +8559,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="41"/>
       <c r="B239" s="15" t="s">
         <v>64</v>
@@ -8571,7 +8581,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="48" t="s">
         <v>127</v>
       </c>
@@ -8589,7 +8599,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>43466</v>
       </c>
@@ -8609,7 +8619,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A241,1)</f>
         <v>43497</v>
@@ -8630,7 +8640,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" ref="A243:A253" si="17">EDATE(A242,1)</f>
         <v>43525</v>
@@ -8651,7 +8661,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f t="shared" si="17"/>
         <v>43556</v>
@@ -8678,7 +8688,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="17"/>
         <v>43586</v>
@@ -8705,7 +8715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>70</v>
@@ -8727,7 +8737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f>EDATE(A245,1)</f>
         <v>43617</v>
@@ -8752,7 +8762,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="17"/>
         <v>43647</v>
@@ -8779,7 +8789,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="17"/>
         <v>43678</v>
@@ -8800,7 +8810,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="17"/>
         <v>43709</v>
@@ -8821,7 +8831,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="17"/>
         <v>43739</v>
@@ -8848,7 +8858,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A251,1)</f>
         <v>43770</v>
@@ -8869,7 +8879,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="17"/>
         <v>43800</v>
@@ -8896,7 +8906,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -8916,7 +8926,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>64</v>
@@ -8938,7 +8948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="48" t="s">
         <v>135</v>
       </c>
@@ -8956,7 +8966,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>43831</v>
       </c>
@@ -8976,11 +8986,11 @@
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
       <c r="J257" s="11"/>
-      <c r="K257" s="66" t="s">
+      <c r="K257" s="54" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>70</v>
@@ -9002,7 +9012,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f>EDATE(A257,1)</f>
         <v>43862</v>
@@ -9023,7 +9033,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" ref="A260:A269" si="18">EDATE(A259,1)</f>
         <v>43891</v>
@@ -9044,7 +9054,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="18"/>
         <v>43922</v>
@@ -9065,7 +9075,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="18"/>
         <v>43952</v>
@@ -9086,7 +9096,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f t="shared" si="18"/>
         <v>43983</v>
@@ -9107,7 +9117,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" si="18"/>
         <v>44013</v>
@@ -9134,7 +9144,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="18"/>
         <v>44044</v>
@@ -9155,7 +9165,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="18"/>
         <v>44075</v>
@@ -9182,7 +9192,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="18"/>
         <v>44105</v>
@@ -9203,7 +9213,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" si="18"/>
         <v>44136</v>
@@ -9224,7 +9234,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" si="18"/>
         <v>44166</v>
@@ -9245,7 +9255,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="48" t="s">
         <v>141</v>
       </c>
@@ -9263,7 +9273,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="41">
         <v>44197</v>
       </c>
@@ -9283,7 +9293,7 @@
       <c r="J271" s="12"/>
       <c r="K271" s="15"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>44228</v>
@@ -9304,7 +9314,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" ref="A273:A283" si="19">EDATE(A272,1)</f>
         <v>44256</v>
@@ -9325,7 +9335,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="19"/>
         <v>44287</v>
@@ -9346,7 +9356,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="19"/>
         <v>44317</v>
@@ -9367,7 +9377,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" si="19"/>
         <v>44348</v>
@@ -9388,7 +9398,7 @@
       <c r="J276" s="12"/>
       <c r="K276" s="15"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="19"/>
         <v>44378</v>
@@ -9409,7 +9419,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="19"/>
         <v>44409</v>
@@ -9434,7 +9444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f t="shared" si="19"/>
         <v>44440</v>
@@ -9455,7 +9465,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f t="shared" si="19"/>
         <v>44470</v>
@@ -9482,7 +9492,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>62</v>
@@ -9502,7 +9512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>44501</v>
@@ -9523,7 +9533,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="19"/>
         <v>44531</v>
@@ -9544,7 +9554,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="48" t="s">
         <v>145</v>
       </c>
@@ -9562,7 +9572,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>44562</v>
       </c>
@@ -9588,7 +9598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A285,1)</f>
         <v>44593</v>
@@ -9609,7 +9619,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f t="shared" ref="A287:A294" si="20">EDATE(A286,1)</f>
         <v>44621</v>
@@ -9636,7 +9646,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f t="shared" si="20"/>
         <v>44652</v>
@@ -9657,7 +9667,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="20"/>
         <v>44682</v>
@@ -9684,7 +9694,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>147</v>
@@ -9706,7 +9716,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>62</v>
@@ -9726,7 +9736,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A289,1)</f>
         <v>44713</v>
@@ -9747,7 +9757,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="20"/>
         <v>44743</v>
@@ -9768,7 +9778,7 @@
       <c r="J293" s="12"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="20"/>
         <v>44774</v>
@@ -9793,96 +9803,297 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
-      <c r="A295" s="40"/>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="40">
+        <v>44805</v>
+      </c>
       <c r="B295" s="20"/>
-      <c r="C295" s="13"/>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="13"/>
+      <c r="G295" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H295" s="39"/>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11">
-      <c r="A296" s="40"/>
-      <c r="B296" s="20"/>
-      <c r="C296" s="13"/>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D296" s="39"/>
       <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="13"/>
-      <c r="H296" s="39"/>
+      <c r="G296" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H296" s="39">
+        <v>3</v>
+      </c>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
-      <c r="K296" s="20"/>
-    </row>
-    <row r="297" spans="1:11">
-      <c r="A297" s="40"/>
-      <c r="B297" s="20"/>
-      <c r="C297" s="13"/>
+      <c r="K296" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B297" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D297" s="39"/>
       <c r="E297" s="9"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="13"/>
+      <c r="G297" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H297" s="39"/>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="20"/>
-    </row>
-    <row r="298" spans="1:11">
-      <c r="A298" s="40"/>
+      <c r="K297" s="50">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="40">
+        <v>44896</v>
+      </c>
       <c r="B298" s="20"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="13"/>
+      <c r="G298" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11">
-      <c r="A299" s="40"/>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="48" t="s">
+        <v>151</v>
+      </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="13"/>
+      <c r="G299" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H299" s="39"/>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
-      <c r="A300" s="40"/>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="40">
+        <v>44927</v>
+      </c>
       <c r="B300" s="20"/>
-      <c r="C300" s="13"/>
+      <c r="C300" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D300" s="39"/>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="13"/>
+      <c r="G300" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11">
-      <c r="A301" s="41"/>
-      <c r="B301" s="15"/>
-      <c r="C301" s="42"/>
-      <c r="D301" s="43"/>
-      <c r="E301" s="52"/>
-      <c r="F301" s="15"/>
-      <c r="G301" s="42"/>
-      <c r="H301" s="43"/>
-      <c r="I301" s="52"/>
-      <c r="J301" s="12"/>
-      <c r="K301" s="15"/>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B301" s="20"/>
+      <c r="C301" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D301" s="39"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H301" s="39"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="20"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B302" s="15"/>
+      <c r="C302" s="42"/>
+      <c r="D302" s="43"/>
+      <c r="E302" s="52"/>
+      <c r="F302" s="15"/>
+      <c r="G302" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H302" s="43"/>
+      <c r="I302" s="52"/>
+      <c r="J302" s="12"/>
+      <c r="K302" s="15"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B303" s="20"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="39"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H303" s="39"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="20"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="39"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H304" s="39"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="20"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B305" s="20"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="39"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H305" s="39"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="20"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B306" s="20"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="39"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H306" s="39"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="20"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="39"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="20"/>
+      <c r="G307" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H307" s="39"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="20"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B308" s="20"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="39"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H308" s="39"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="20"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B309" s="20"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="39"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H309" s="39"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9899,10 +10110,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9925,7 +10136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9933,7 +10144,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -9947,20 +10158,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="64" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9989,7 +10200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1.167</v>
       </c>
@@ -10019,17 +10230,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10043,14 +10254,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10077,7 +10288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10103,7 +10314,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10129,7 +10340,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10155,7 +10366,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10181,7 +10392,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10207,7 +10418,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10233,7 +10444,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10259,7 +10470,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10279,7 +10490,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10299,7 +10510,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10319,7 +10530,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10340,7 +10551,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10361,7 +10572,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10382,7 +10593,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10403,7 +10614,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10424,7 +10635,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10445,7 +10656,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10466,7 +10677,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10487,7 +10698,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10508,7 +10719,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10529,7 +10740,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10550,7 +10761,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10571,7 +10782,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10592,7 +10803,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10613,7 +10824,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10634,7 +10845,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10655,7 +10866,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10676,7 +10887,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10697,7 +10908,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10718,7 +10929,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10739,7 +10950,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10748,7 +10959,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10757,7 +10968,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10766,7 +10977,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10775,7 +10986,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10784,7 +10995,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10793,7 +11004,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10802,7 +11013,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10811,7 +11022,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10820,7 +11031,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10829,7 +11040,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10838,7 +11049,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10847,7 +11058,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10856,7 +11067,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10865,7 +11076,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10874,7 +11085,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10883,7 +11094,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10892,7 +11103,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10901,7 +11112,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10910,7 +11121,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10919,7 +11130,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10928,7 +11139,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10937,7 +11148,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10946,7 +11157,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10955,7 +11166,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10964,7 +11175,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10973,7 +11184,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10982,7 +11193,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10991,7 +11202,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11000,7 +11211,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/BORJA, EDWIN.xlsx
+++ b/REGULAR/OJT/NEW DONE/BORJA, EDWIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB54967-EF15-42BE-975E-ED4D9C2F4AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="158">
   <si>
     <t>PERIOD</t>
   </si>
@@ -500,12 +499,21 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>BDAY 6/26/2023</t>
+  </si>
+  <si>
+    <t>TICC</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1387,7 +1395,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1438,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1502,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1562,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1628,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1691,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1789,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1848,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1913,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1956,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2031,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2217,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2283,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2341,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2407,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2463,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2538,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2581,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2647,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2703,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2801,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2864,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,25 +2930,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2952,13 +2960,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2967,14 +2975,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3278,7 +3286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3288,7 +3296,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3296,34 +3304,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A283" activePane="bottomLeft"/>
-      <selection activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A283" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3352,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3362,16 +3370,20 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="56" t="s">
+        <v>157</v>
+      </c>
       <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="61" t="s">
+        <v>156</v>
+      </c>
       <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3380,7 +3392,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3388,7 +3400,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3401,7 +3413,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3418,7 +3430,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3462,7 +3474,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>168.58199999999999</v>
+        <v>171.08199999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3472,12 +3484,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>214.417</v>
+        <v>216.917</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3499,7 +3511,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37653</v>
       </c>
@@ -3519,7 +3531,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>37681</v>
@@ -3540,7 +3552,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A20" si="0">EDATE(A12,1)</f>
         <v>37712</v>
@@ -3561,7 +3573,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -3582,7 +3594,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3603,7 +3615,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f>EDATE(A15,1)</f>
         <v>37803</v>
@@ -3624,7 +3636,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3645,7 +3657,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3666,7 +3678,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>37895</v>
@@ -3687,7 +3699,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>37926</v>
@@ -3708,7 +3720,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A20,1)</f>
         <v>37956</v>
@@ -3729,7 +3741,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>44</v>
       </c>
@@ -3747,7 +3759,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -3767,7 +3779,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -3792,7 +3804,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A34" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -3813,7 +3825,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -3834,7 +3846,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -3855,7 +3867,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -3880,7 +3892,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -3904,7 +3916,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A28,1)</f>
         <v>38169</v>
@@ -3925,7 +3937,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -3946,7 +3958,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -3967,7 +3979,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -3988,7 +4000,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -4015,7 +4027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>48</v>
@@ -4037,7 +4049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>38322</v>
@@ -4058,7 +4070,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>51</v>
       </c>
@@ -4076,7 +4088,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4096,7 +4108,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4117,7 +4129,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A49" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4138,7 +4150,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4159,7 +4171,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -4180,7 +4192,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4201,7 +4213,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4222,7 +4234,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4247,7 +4259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>38596</v>
@@ -4272,7 +4284,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -4293,7 +4305,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4314,7 +4326,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -4335,7 +4347,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>54</v>
       </c>
@@ -4353,7 +4365,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>38718</v>
       </c>
@@ -4373,7 +4385,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38749</v>
@@ -4394,7 +4406,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A62" si="3">EDATE(A52,1)</f>
         <v>38777</v>
@@ -4415,7 +4427,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>38808</v>
@@ -4436,7 +4448,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4457,7 +4469,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4478,7 +4490,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4499,7 +4511,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4520,7 +4532,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38961</v>
@@ -4541,7 +4553,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38991</v>
@@ -4562,7 +4574,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -4583,7 +4595,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>39052</v>
@@ -4608,7 +4620,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>55</v>
       </c>
@@ -4626,7 +4638,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>39083</v>
       </c>
@@ -4650,7 +4662,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f>EDATE(A64,1)</f>
         <v>39114</v>
@@ -4675,7 +4687,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" ref="A66:A75" si="4">EDATE(A65,1)</f>
         <v>39142</v>
@@ -4696,7 +4708,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>39173</v>
@@ -4717,7 +4729,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>39203</v>
@@ -4738,7 +4750,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -4763,7 +4775,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -4788,7 +4800,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -4813,7 +4825,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>39326</v>
@@ -4834,7 +4846,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -4861,7 +4873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="4"/>
         <v>39387</v>
@@ -4882,7 +4894,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -4907,7 +4919,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>63</v>
       </c>
@@ -4925,7 +4937,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>39448</v>
       </c>
@@ -4945,7 +4957,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>39479</v>
@@ -4972,7 +4984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A90" si="5">EDATE(A78,1)</f>
         <v>39508</v>
@@ -4993,7 +5005,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5014,7 +5026,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5039,7 +5051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>68</v>
@@ -5061,7 +5073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39600</v>
@@ -5086,7 +5098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5104,7 +5116,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>39630</v>
@@ -5125,7 +5137,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5146,7 +5158,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5171,7 +5183,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -5189,7 +5201,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>39722</v>
@@ -5210,7 +5222,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5237,7 +5249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>62</v>
@@ -5257,7 +5269,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>39783</v>
@@ -5278,7 +5290,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>74</v>
       </c>
@@ -5296,7 +5308,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>39814</v>
       </c>
@@ -5316,7 +5328,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A94,1)</f>
         <v>39845</v>
@@ -5343,7 +5355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" ref="A96:A105" si="6">EDATE(A95,1)</f>
         <v>39873</v>
@@ -5370,7 +5382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5395,7 +5407,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5416,7 +5428,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -5443,7 +5455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -5464,7 +5476,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -5485,7 +5497,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -5506,7 +5518,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -5527,7 +5539,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -5552,7 +5564,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -5577,7 +5589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>82</v>
       </c>
@@ -5595,7 +5607,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>40179</v>
       </c>
@@ -5615,7 +5627,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f>EDATE(A107,1)</f>
         <v>40210</v>
@@ -5636,7 +5648,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" ref="A109:A121" si="7">EDATE(A108,1)</f>
         <v>40238</v>
@@ -5663,7 +5675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -5684,7 +5696,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="7"/>
         <v>40299</v>
@@ -5711,7 +5723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>62</v>
@@ -5731,7 +5743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>40330</v>
@@ -5752,7 +5764,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="7"/>
         <v>40360</v>
@@ -5779,7 +5791,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>46</v>
@@ -5801,7 +5813,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>45</v>
@@ -5823,7 +5835,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>40391</v>
@@ -5844,7 +5856,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="7"/>
         <v>40422</v>
@@ -5871,7 +5883,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -5898,7 +5910,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -5923,7 +5935,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>40513</v>
@@ -5944,7 +5956,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>88</v>
       </c>
@@ -5962,7 +5974,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>40544</v>
       </c>
@@ -5982,7 +5994,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A123,1)</f>
         <v>40575</v>
@@ -6009,7 +6021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>70</v>
@@ -6031,7 +6043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>70</v>
@@ -6053,7 +6065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A124,1)</f>
         <v>40603</v>
@@ -6080,7 +6092,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" ref="A128:A137" si="8">EDATE(A127,1)</f>
         <v>40634</v>
@@ -6101,7 +6113,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -6122,7 +6134,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6147,7 +6159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6172,7 +6184,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6193,7 +6205,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6214,7 +6226,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -6241,7 +6253,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>62</v>
@@ -6261,7 +6273,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>40848</v>
@@ -6282,7 +6294,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="8"/>
         <v>40878</v>
@@ -6303,7 +6315,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>96</v>
       </c>
@@ -6321,7 +6333,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>40909</v>
       </c>
@@ -6341,7 +6353,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A139,1)</f>
         <v>40940</v>
@@ -6362,7 +6374,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" ref="A141:A149" si="9">EDATE(A140,1)</f>
         <v>40969</v>
@@ -6383,7 +6395,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="9"/>
         <v>41000</v>
@@ -6404,7 +6416,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="9"/>
         <v>41030</v>
@@ -6425,7 +6437,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="9"/>
         <v>41061</v>
@@ -6446,7 +6458,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -6467,7 +6479,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>41122</v>
@@ -6488,7 +6500,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -6509,7 +6521,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>41183</v>
@@ -6530,7 +6542,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>41214</v>
@@ -6551,7 +6563,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A149,1)</f>
         <v>41244</v>
@@ -6576,7 +6588,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>97</v>
       </c>
@@ -6594,7 +6606,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>41275</v>
       </c>
@@ -6620,7 +6632,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A152,1)</f>
         <v>41306</v>
@@ -6647,7 +6659,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" ref="A154:A166" si="10">EDATE(A153,1)</f>
         <v>41334</v>
@@ -6668,7 +6680,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -6695,7 +6707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="10"/>
         <v>41395</v>
@@ -6722,7 +6734,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -6749,7 +6761,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -6769,7 +6781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>41456</v>
@@ -6790,7 +6802,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -6811,7 +6823,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -6838,7 +6850,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>46</v>
@@ -6860,7 +6872,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f>EDATE(A161,1)</f>
         <v>41548</v>
@@ -6885,7 +6897,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>45</v>
@@ -6905,7 +6917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>41579</v>
@@ -6926,7 +6938,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -6947,7 +6959,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="53" t="s">
         <v>101</v>
       </c>
@@ -6965,7 +6977,7 @@
       <c r="J167" s="12"/>
       <c r="K167" s="15"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>41640</v>
       </c>
@@ -6989,7 +7001,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A168,1)</f>
         <v>41671</v>
@@ -7014,7 +7026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>70</v>
@@ -7036,7 +7048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>41699</v>
@@ -7063,7 +7075,7 @@
         <v>46447</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" ref="A172:A179" si="11">EDATE(A171,1)</f>
         <v>41730</v>
@@ -7090,7 +7102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="11"/>
         <v>41760</v>
@@ -7111,7 +7123,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -7132,7 +7144,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="11"/>
         <v>41821</v>
@@ -7153,7 +7165,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -7174,7 +7186,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -7195,7 +7207,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -7216,7 +7228,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>41944</v>
@@ -7243,7 +7255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>76</v>
@@ -7262,7 +7274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>41974</v>
@@ -7287,7 +7299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="48" t="s">
         <v>108</v>
       </c>
@@ -7305,7 +7317,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>42005</v>
       </c>
@@ -7331,7 +7343,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A183,1)</f>
         <v>42036</v>
@@ -7358,7 +7370,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" ref="A185:A194" si="12">EDATE(A184,1)</f>
         <v>42064</v>
@@ -7379,7 +7391,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="12"/>
         <v>42095</v>
@@ -7400,7 +7412,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -7425,7 +7437,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -7446,7 +7458,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -7473,7 +7485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -7494,7 +7506,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -7515,7 +7527,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -7542,7 +7554,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>42309</v>
@@ -7563,7 +7575,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="12"/>
         <v>42339</v>
@@ -7584,7 +7596,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
         <v>113</v>
       </c>
@@ -7602,7 +7614,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>42370</v>
       </c>
@@ -7622,7 +7634,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A196,1)</f>
         <v>42401</v>
@@ -7643,7 +7655,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" ref="A198:A203" si="13">EDATE(A197,1)</f>
         <v>42430</v>
@@ -7664,7 +7676,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -7685,7 +7697,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -7706,7 +7718,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -7727,7 +7739,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -7752,7 +7764,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -7777,7 +7789,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>46</v>
@@ -7797,7 +7809,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>42614</v>
@@ -7818,7 +7830,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>42644</v>
@@ -7839,7 +7851,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A208" si="14">EDATE(A206,1)</f>
         <v>42675</v>
@@ -7866,7 +7878,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="14"/>
         <v>42705</v>
@@ -7891,7 +7903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>116</v>
       </c>
@@ -7909,7 +7921,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>42736</v>
       </c>
@@ -7929,7 +7941,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A210,1)</f>
         <v>42767</v>
@@ -7956,7 +7968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" ref="A212:A220" si="15">EDATE(A211,1)</f>
         <v>42795</v>
@@ -7977,7 +7989,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="15"/>
         <v>42826</v>
@@ -7998,7 +8010,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="15"/>
         <v>42856</v>
@@ -8019,7 +8031,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="15"/>
         <v>42887</v>
@@ -8040,7 +8052,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="15"/>
         <v>42917</v>
@@ -8067,7 +8079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>70</v>
@@ -8089,7 +8101,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A216,1)</f>
         <v>42948</v>
@@ -8110,7 +8122,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="15"/>
         <v>42979</v>
@@ -8131,7 +8143,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="15"/>
         <v>43009</v>
@@ -8152,7 +8164,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f>EDATE(A220,1)</f>
         <v>43040</v>
@@ -8179,7 +8191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>64</v>
@@ -8198,7 +8210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>62</v>
@@ -8215,7 +8227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A221,1)</f>
         <v>43070</v>
@@ -8236,7 +8248,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>122</v>
       </c>
@@ -8254,7 +8266,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>43101</v>
       </c>
@@ -8280,7 +8292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A226,1)</f>
         <v>43132</v>
@@ -8301,7 +8313,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" ref="A228:A238" si="16">EDATE(A227,1)</f>
         <v>43160</v>
@@ -8328,7 +8340,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="16"/>
         <v>43191</v>
@@ -8355,7 +8367,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="16"/>
         <v>43221</v>
@@ -8376,7 +8388,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="16"/>
         <v>43252</v>
@@ -8401,7 +8413,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>46</v>
@@ -8421,7 +8433,7 @@
         <v>45809</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>43282</v>
@@ -8448,7 +8460,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="16"/>
         <v>43313</v>
@@ -8469,7 +8481,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="16"/>
         <v>43344</v>
@@ -8490,7 +8502,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="16"/>
         <v>43374</v>
@@ -8511,7 +8523,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="16"/>
         <v>43405</v>
@@ -8532,7 +8544,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="16"/>
         <v>43435</v>
@@ -8559,7 +8571,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="41"/>
       <c r="B239" s="15" t="s">
         <v>64</v>
@@ -8581,7 +8593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="48" t="s">
         <v>127</v>
       </c>
@@ -8599,7 +8611,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>43466</v>
       </c>
@@ -8619,7 +8631,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A241,1)</f>
         <v>43497</v>
@@ -8640,7 +8652,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" ref="A243:A253" si="17">EDATE(A242,1)</f>
         <v>43525</v>
@@ -8661,7 +8673,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="17"/>
         <v>43556</v>
@@ -8688,7 +8700,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="17"/>
         <v>43586</v>
@@ -8715,7 +8727,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>70</v>
@@ -8737,7 +8749,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f>EDATE(A245,1)</f>
         <v>43617</v>
@@ -8762,7 +8774,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="17"/>
         <v>43647</v>
@@ -8789,7 +8801,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="17"/>
         <v>43678</v>
@@ -8810,7 +8822,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="17"/>
         <v>43709</v>
@@ -8831,7 +8843,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="17"/>
         <v>43739</v>
@@ -8858,7 +8870,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A251,1)</f>
         <v>43770</v>
@@ -8879,7 +8891,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="17"/>
         <v>43800</v>
@@ -8906,7 +8918,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -8926,7 +8938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>64</v>
@@ -8948,7 +8960,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>135</v>
       </c>
@@ -8966,7 +8978,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>43831</v>
       </c>
@@ -8990,7 +9002,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>70</v>
@@ -9012,7 +9024,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f>EDATE(A257,1)</f>
         <v>43862</v>
@@ -9033,7 +9045,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" ref="A260:A269" si="18">EDATE(A259,1)</f>
         <v>43891</v>
@@ -9054,7 +9066,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="18"/>
         <v>43922</v>
@@ -9075,7 +9087,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="18"/>
         <v>43952</v>
@@ -9096,7 +9108,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="18"/>
         <v>43983</v>
@@ -9117,7 +9129,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="18"/>
         <v>44013</v>
@@ -9144,7 +9156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="18"/>
         <v>44044</v>
@@ -9165,7 +9177,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="18"/>
         <v>44075</v>
@@ -9192,7 +9204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="18"/>
         <v>44105</v>
@@ -9213,7 +9225,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="18"/>
         <v>44136</v>
@@ -9234,7 +9246,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="18"/>
         <v>44166</v>
@@ -9255,7 +9267,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="48" t="s">
         <v>141</v>
       </c>
@@ -9273,7 +9285,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>44197</v>
       </c>
@@ -9293,7 +9305,7 @@
       <c r="J271" s="12"/>
       <c r="K271" s="15"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>44228</v>
@@ -9314,7 +9326,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" ref="A273:A283" si="19">EDATE(A272,1)</f>
         <v>44256</v>
@@ -9335,7 +9347,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="19"/>
         <v>44287</v>
@@ -9356,7 +9368,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="19"/>
         <v>44317</v>
@@ -9377,7 +9389,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="19"/>
         <v>44348</v>
@@ -9398,7 +9410,7 @@
       <c r="J276" s="12"/>
       <c r="K276" s="15"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="19"/>
         <v>44378</v>
@@ -9419,7 +9431,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="19"/>
         <v>44409</v>
@@ -9444,7 +9456,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" si="19"/>
         <v>44440</v>
@@ -9465,7 +9477,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" si="19"/>
         <v>44470</v>
@@ -9492,7 +9504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>62</v>
@@ -9512,7 +9524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>44501</v>
@@ -9533,7 +9545,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="19"/>
         <v>44531</v>
@@ -9554,7 +9566,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>145</v>
       </c>
@@ -9572,7 +9584,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>44562</v>
       </c>
@@ -9598,7 +9610,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A285,1)</f>
         <v>44593</v>
@@ -9619,7 +9631,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" ref="A287:A294" si="20">EDATE(A286,1)</f>
         <v>44621</v>
@@ -9646,7 +9658,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="20"/>
         <v>44652</v>
@@ -9667,7 +9679,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="20"/>
         <v>44682</v>
@@ -9694,7 +9706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>147</v>
@@ -9716,7 +9728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>62</v>
@@ -9736,7 +9748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A289,1)</f>
         <v>44713</v>
@@ -9757,7 +9769,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="20"/>
         <v>44743</v>
@@ -9778,7 +9790,7 @@
       <c r="J293" s="12"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="20"/>
         <v>44774</v>
@@ -9803,7 +9815,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>44805</v>
       </c>
@@ -9823,7 +9835,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>44835</v>
       </c>
@@ -9849,7 +9861,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>44866</v>
       </c>
@@ -9873,7 +9885,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>44896</v>
       </c>
@@ -9893,7 +9905,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
         <v>151</v>
       </c>
@@ -9911,7 +9923,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>44927</v>
       </c>
@@ -9931,7 +9943,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>44958</v>
       </c>
@@ -9951,43 +9963,51 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>44986</v>
       </c>
       <c r="B302" s="15"/>
-      <c r="C302" s="42"/>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D302" s="43"/>
       <c r="E302" s="52"/>
       <c r="F302" s="15"/>
-      <c r="G302" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G302" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H302" s="43"/>
       <c r="I302" s="52"/>
       <c r="J302" s="12"/>
       <c r="K302" s="15"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>45017</v>
       </c>
-      <c r="B303" s="20"/>
-      <c r="C303" s="13"/>
+      <c r="B303" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D303" s="39"/>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G303" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
-      <c r="K303" s="20"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K303" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>45047</v>
       </c>
@@ -10005,7 +10025,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>45078</v>
       </c>
@@ -10023,7 +10043,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>45108</v>
       </c>
@@ -10041,7 +10061,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>45139</v>
       </c>
@@ -10059,7 +10079,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>45170</v>
       </c>
@@ -10077,7 +10097,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>45200</v>
       </c>
@@ -10109,11 +10129,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10136,7 +10156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -10144,21 +10164,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -10171,7 +10191,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10200,7 +10220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.167</v>
       </c>
@@ -10230,17 +10250,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10261,7 +10281,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10288,7 +10308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10314,7 +10334,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10340,7 +10360,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10366,7 +10386,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10392,7 +10412,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10418,7 +10438,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10444,7 +10464,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10470,7 +10490,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10490,7 +10510,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10510,7 +10530,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10530,7 +10550,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10551,7 +10571,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10572,7 +10592,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10593,7 +10613,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10614,7 +10634,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10635,7 +10655,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10656,7 +10676,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10677,7 +10697,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10698,7 +10718,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10719,7 +10739,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10740,7 +10760,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10761,7 +10781,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10782,7 +10802,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10803,7 +10823,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10824,7 +10844,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10845,7 +10865,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10866,7 +10886,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10887,7 +10907,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10908,7 +10928,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10929,7 +10949,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10950,7 +10970,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10959,7 +10979,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10968,7 +10988,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10977,7 +10997,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10986,7 +11006,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10995,7 +11015,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11004,7 +11024,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11013,7 +11033,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11022,7 +11042,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11031,7 +11051,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11040,7 +11060,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11049,7 +11069,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11058,7 +11078,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11067,7 +11087,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11076,7 +11096,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11085,7 +11105,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11094,7 +11114,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11103,7 +11123,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11112,7 +11132,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11121,7 +11141,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11130,7 +11150,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11139,7 +11159,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11148,7 +11168,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11157,7 +11177,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11166,7 +11186,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11175,7 +11195,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11184,7 +11204,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11193,7 +11213,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11202,7 +11222,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11211,7 +11231,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
